--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>751306.2250882613</v>
+        <v>765005.9832813835</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13360835.96253918</v>
+        <v>11857191.11602537</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2460204.061553704</v>
+        <v>698313.6830760738</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7749486.039208436</v>
+        <v>8403319.833531942</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>143.2799679368401</v>
       </c>
       <c r="C2" t="n">
         <v>22.63172268683286</v>
@@ -665,10 +667,10 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>126.4461237865643</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
         <v>400.2956717864458</v>
@@ -677,7 +679,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +819,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.03228358185952</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
@@ -829,7 +831,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>133.8141099848247</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -880,7 +882,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -896,22 +898,22 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>384.3304552567087</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -950,19 +952,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>340.4595426762225</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1051,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429392</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1117,7 +1119,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>11.39996927779299</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1133,25 +1135,25 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>59.06936129933047</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>135.2328861321556</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1291,25 +1293,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>60.15466974967033</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>226.587886463794</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1385,10 +1387,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>141.0753921893336</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>214.0679051944713</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1525,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>4.378995526348206</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
@@ -1582,16 +1584,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>218.0080577057878</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1607,22 +1609,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>132.256743083318</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>214.0679051944713</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>106.4197968451553</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -2014,10 +2016,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>11.12043047005107</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -2068,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2098,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407063</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
         <v>34.5479025439635</v>
@@ -2135,7 +2137,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7713603095518</v>
+        <v>255.771360309553</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
@@ -2296,13 +2298,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100367</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>122.9177036806385</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>133.9073134702962</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
@@ -2524,25 +2526,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>115.1055716303381</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2615,7 +2617,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026577</v>
       </c>
       <c r="X26" t="n">
         <v>407.6027988439302</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>103.1498781034791</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>98.15366458399268</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
@@ -2776,7 +2778,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>240.1382575886491</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2959,16 +2961,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>181.2635869532363</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3196,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>4.378995526348093</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>5.04121948802891</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T35" t="n">
         <v>218.7163152458132</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>78.16614128474215</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
@@ -3430,19 +3432,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
@@ -3484,13 +3486,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>173.2846230762509</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3661,25 +3663,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>51.69511841098299</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>156.3950745845505</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3746,7 +3748,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>105.5544207323506</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
@@ -3755,10 +3757,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>186.9176635037728</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,22 +3793,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
@@ -3910,13 +3912,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,13 +3954,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>200.9829351685053</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>76.64068269426186</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3983,19 +3985,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>133.011698963975</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,10 +4030,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>147.7993290726188</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -4040,7 +4042,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4135,22 +4137,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>260.444681387164</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -4201,7 +4203,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>116.7770917239385</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1352.468899141499</v>
+        <v>866.7353935451185</v>
       </c>
       <c r="C2" t="n">
-        <v>1329.608573195203</v>
+        <v>843.8750675988227</v>
       </c>
       <c r="D2" t="n">
-        <v>1310.356356420608</v>
+        <v>824.622850824227</v>
       </c>
       <c r="E2" t="n">
-        <v>884.3794165684654</v>
+        <v>802.6863150124886</v>
       </c>
       <c r="F2" t="n">
-        <v>756.6560592082994</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G2" t="n">
-        <v>352.3169967977481</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H2" t="n">
-        <v>54.44861827178296</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I2" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K2" t="n">
-        <v>54.44861827178296</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L2" t="n">
-        <v>54.44861827178296</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M2" t="n">
-        <v>728.2502693850971</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="N2" t="n">
-        <v>1374.82761136252</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="O2" t="n">
-        <v>2048.629262475834</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P2" t="n">
-        <v>2722.430913589148</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q2" t="n">
-        <v>2722.430913589148</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R2" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2618.063619462288</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>2397.138048506922</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U2" t="n">
-        <v>2138.783139103334</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V2" t="n">
-        <v>1781.293724229584</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W2" t="n">
-        <v>1781.293724229584</v>
+        <v>1828.519902762723</v>
       </c>
       <c r="X2" t="n">
-        <v>1369.573725397331</v>
+        <v>1416.799903930471</v>
       </c>
       <c r="Y2" t="n">
-        <v>1368.276859392625</v>
+        <v>1011.462633885361</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>621.5721093032382</v>
+        <v>983.3471129133217</v>
       </c>
       <c r="C3" t="n">
-        <v>504.066205820743</v>
+        <v>865.8412094308264</v>
       </c>
       <c r="D3" t="n">
-        <v>400.226247336028</v>
+        <v>762.0012509461114</v>
       </c>
       <c r="E3" t="n">
-        <v>295.5243136089652</v>
+        <v>657.2993172190487</v>
       </c>
       <c r="F3" t="n">
-        <v>201.8784832918694</v>
+        <v>563.6534869019529</v>
       </c>
       <c r="G3" t="n">
-        <v>107.8247115094734</v>
+        <v>469.5997151195569</v>
       </c>
       <c r="H3" t="n">
-        <v>54.44861827178296</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="I3" t="n">
-        <v>61.8952612336948</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="J3" t="n">
-        <v>61.8952612336948</v>
+        <v>572.914647509062</v>
       </c>
       <c r="K3" t="n">
-        <v>61.8952612336948</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="L3" t="n">
-        <v>735.6969123470089</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="M3" t="n">
-        <v>735.6969123470089</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N3" t="n">
-        <v>735.6969123470089</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O3" t="n">
-        <v>1316.97146190481</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P3" t="n">
-        <v>1316.97146190481</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q3" t="n">
-        <v>1781.11693876759</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R3" t="n">
-        <v>1863.136248852293</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S3" t="n">
-        <v>1781.812001413547</v>
+        <v>2143.587005023631</v>
       </c>
       <c r="T3" t="n">
-        <v>1639.932065711226</v>
+        <v>2001.707069321309</v>
       </c>
       <c r="U3" t="n">
-        <v>1455.163869630862</v>
+        <v>1816.938873240946</v>
       </c>
       <c r="V3" t="n">
-        <v>1250.190730770128</v>
+        <v>1611.965734380212</v>
       </c>
       <c r="W3" t="n">
-        <v>1053.669353603346</v>
+        <v>1415.444357213429</v>
       </c>
       <c r="X3" t="n">
-        <v>890.1920073700086</v>
+        <v>1251.967010980092</v>
       </c>
       <c r="Y3" t="n">
-        <v>750.499118723301</v>
+        <v>1112.274122333384</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1286.969475873404</v>
+        <v>1009.2747476664</v>
       </c>
       <c r="C4" t="n">
-        <v>1286.969475873404</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D4" t="n">
-        <v>1123.652703000175</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E4" t="n">
-        <v>957.4444971530289</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F4" t="n">
-        <v>785.5827229275893</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G4" t="n">
-        <v>785.5827229275893</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H4" t="n">
-        <v>641.7864544357437</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I4" t="n">
-        <v>542.0178861760197</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>599.5092144001777</v>
+        <v>101.9895532734058</v>
       </c>
       <c r="K4" t="n">
-        <v>826.0368156060149</v>
+        <v>328.5171544792431</v>
       </c>
       <c r="L4" t="n">
-        <v>1180.726136900436</v>
+        <v>683.2064757736639</v>
       </c>
       <c r="M4" t="n">
-        <v>1571.911931870686</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
-        <v>1949.403442746722</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>2304.831571426485</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P4" t="n">
-        <v>2595.430783348386</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q4" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2675.392300276321</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S4" t="n">
-        <v>2675.392300276321</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T4" t="n">
-        <v>2540.226532614882</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U4" t="n">
-        <v>2260.042084115186</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V4" t="n">
-        <v>1978.330616723215</v>
+        <v>1943.199785070405</v>
       </c>
       <c r="W4" t="n">
-        <v>1703.478212895728</v>
+        <v>1668.347381242918</v>
       </c>
       <c r="X4" t="n">
-        <v>1703.478212895728</v>
+        <v>1425.783484688724</v>
       </c>
       <c r="Y4" t="n">
-        <v>1477.13544458547</v>
+        <v>1199.440716378466</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1668.640113505293</v>
+        <v>1376.947823099961</v>
       </c>
       <c r="C5" t="n">
-        <v>1241.739383518593</v>
+        <v>1354.087497153665</v>
       </c>
       <c r="D5" t="n">
-        <v>1222.487166743998</v>
+        <v>1334.83528037907</v>
       </c>
       <c r="E5" t="n">
-        <v>1200.550630932259</v>
+        <v>908.8583405269275</v>
       </c>
       <c r="F5" t="n">
-        <v>775.4264491216595</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G5" t="n">
-        <v>387.2138680542769</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>89.34548952831176</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>728.2502693850971</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L5" t="n">
-        <v>728.2502693850971</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M5" t="n">
-        <v>728.2502693850971</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N5" t="n">
-        <v>1402.051920498411</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O5" t="n">
-        <v>2048.629262475834</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P5" t="n">
-        <v>2722.430913589148</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q5" t="n">
-        <v>2722.430913589148</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>2501.505342633781</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U5" t="n">
-        <v>2501.505342633781</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V5" t="n">
-        <v>2501.505342633781</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="W5" t="n">
-        <v>2501.505342633781</v>
+        <v>1401.732244147642</v>
       </c>
       <c r="X5" t="n">
-        <v>2089.785343801529</v>
+        <v>1394.052649355793</v>
       </c>
       <c r="Y5" t="n">
-        <v>1684.448073756419</v>
+        <v>1392.755783351087</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>621.5721093032382</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>504.066205820743</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>400.226247336028</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>295.5243136089652</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>201.8784832918694</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>107.8247115094734</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>61.8952612336948</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>333.5927505132859</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K6" t="n">
-        <v>643.169810791496</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L6" t="n">
-        <v>643.169810791496</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="M6" t="n">
-        <v>1316.97146190481</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="N6" t="n">
-        <v>1316.97146190481</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O6" t="n">
-        <v>1316.97146190481</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P6" t="n">
-        <v>1316.97146190481</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
-        <v>1781.11693876759</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1781.812001413547</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1639.932065711226</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1455.163869630862</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1250.190730770128</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1053.669353603346</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>890.1920073700086</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>750.499118723301</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>699.7424286050883</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C7" t="n">
-        <v>527.7698654840043</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="D7" t="n">
-        <v>364.453092610775</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="E7" t="n">
-        <v>198.2448867636286</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F7" t="n">
-        <v>198.2448867636286</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G7" t="n">
-        <v>198.2448867636286</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H7" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>111.939946495941</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>338.4675477017781</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>693.1568689961989</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1084.34266396645</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1461.834174842485</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1817.262303522249</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2107.86151544415</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2234.861645684911</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2187.823032372085</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2017.687984891219</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T7" t="n">
-        <v>1774.348637117119</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U7" t="n">
-        <v>1494.164188617424</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V7" t="n">
-        <v>1212.452721225452</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W7" t="n">
-        <v>937.6003173979655</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X7" t="n">
-        <v>926.0851969153463</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y7" t="n">
-        <v>699.7424286050883</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1388.807040634147</v>
+        <v>1674.816201625927</v>
       </c>
       <c r="C8" t="n">
-        <v>1329.141019119672</v>
+        <v>1247.915471639227</v>
       </c>
       <c r="D8" t="n">
-        <v>905.8483983046724</v>
+        <v>1228.663254864631</v>
       </c>
       <c r="E8" t="n">
-        <v>479.87145845253</v>
+        <v>1206.726719052893</v>
       </c>
       <c r="F8" t="n">
-        <v>458.7876806823343</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G8" t="n">
-        <v>54.44861827178296</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H8" t="n">
-        <v>54.44861827178296</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>728.2502693850971</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L8" t="n">
-        <v>1402.051920498411</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="M8" t="n">
-        <v>1402.051920498411</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="N8" t="n">
-        <v>1402.051920498411</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="O8" t="n">
-        <v>2048.629262475834</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P8" t="n">
-        <v>2722.430913589148</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
-        <v>2722.430913589148</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2618.063619462288</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2618.063619462288</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>2618.063619462288</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V8" t="n">
-        <v>2618.063619462288</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W8" t="n">
-        <v>2221.672269762636</v>
+        <v>1828.519902762723</v>
       </c>
       <c r="X8" t="n">
-        <v>1809.952270930383</v>
+        <v>1691.921027881758</v>
       </c>
       <c r="Y8" t="n">
-        <v>1404.615000885273</v>
+        <v>1690.624161877053</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>621.5721093032382</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>504.066205820743</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>400.226247336028</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>295.5243136089652</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>201.8784832918694</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>107.8247115094734</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>515.5329466256644</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L9" t="n">
-        <v>1189.334597738979</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M9" t="n">
-        <v>1863.136248852293</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N9" t="n">
-        <v>1863.136248852293</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="O9" t="n">
-        <v>1863.136248852293</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P9" t="n">
-        <v>1863.136248852293</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q9" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1781.812001413547</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1639.932065711226</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1455.163869630862</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1250.190730770128</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1053.669353603346</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>890.1920073700086</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>750.499118723301</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>278.5276838214469</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>278.5276838214469</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>115.2109109482176</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>115.2109109482176</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>54.44861827178296</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>54.44861827178296</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>54.44861827178296</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>111.939946495941</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>338.4675477017781</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>693.1568689961989</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>1084.34266396645</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1461.834174842485</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1817.262303522249</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>2107.86151544415</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>2234.861645684911</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2187.823032372085</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>2017.687984891219</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T10" t="n">
-        <v>1774.348637117119</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="U10" t="n">
-        <v>1494.164188617424</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="V10" t="n">
-        <v>1212.452721225452</v>
+        <v>1773.064737589539</v>
       </c>
       <c r="W10" t="n">
-        <v>937.6003173979655</v>
+        <v>1773.064737589539</v>
       </c>
       <c r="X10" t="n">
-        <v>695.0364208437705</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y10" t="n">
-        <v>468.6936525335126</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2302.582549297618</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C11" t="n">
-        <v>1875.681819310918</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D11" t="n">
-        <v>1452.389198495919</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E11" t="n">
-        <v>1026.412258643776</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F11" t="n">
-        <v>601.2880768331763</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G11" t="n">
-        <v>196.9490144226249</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H11" t="n">
-        <v>54.44861827178296</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I11" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K11" t="n">
-        <v>54.44861827178296</v>
+        <v>815.5852528544891</v>
       </c>
       <c r="L11" t="n">
-        <v>728.2502693850971</v>
+        <v>1745.210300473766</v>
       </c>
       <c r="M11" t="n">
-        <v>728.2502693850971</v>
+        <v>2018.08677664988</v>
       </c>
       <c r="N11" t="n">
-        <v>1402.051920498411</v>
+        <v>2994.337835136581</v>
       </c>
       <c r="O11" t="n">
-        <v>1474.987448089748</v>
+        <v>3839.482485287394</v>
       </c>
       <c r="P11" t="n">
-        <v>2148.789099203062</v>
+        <v>4547.761764445321</v>
       </c>
       <c r="Q11" t="n">
-        <v>2604.874578707245</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R11" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S11" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="T11" t="n">
-        <v>2722.430913589148</v>
+        <v>4787.617036682362</v>
       </c>
       <c r="U11" t="n">
-        <v>2722.430913589148</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V11" t="n">
-        <v>2722.430913589148</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W11" t="n">
-        <v>2722.430913589148</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X11" t="n">
-        <v>2722.430913589148</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y11" t="n">
-        <v>2722.430913589148</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>621.5721093032382</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C12" t="n">
-        <v>504.066205820743</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>400.226247336028</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E12" t="n">
-        <v>295.5243136089652</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F12" t="n">
-        <v>201.8784832918694</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G12" t="n">
-        <v>107.8247115094734</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H12" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J12" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K12" t="n">
-        <v>54.44861827178296</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="L12" t="n">
-        <v>54.44861827178296</v>
+        <v>1527.360679530236</v>
       </c>
       <c r="M12" t="n">
-        <v>54.44861827178296</v>
+        <v>1527.360679530236</v>
       </c>
       <c r="N12" t="n">
-        <v>515.5329466256644</v>
+        <v>1527.360679530236</v>
       </c>
       <c r="O12" t="n">
-        <v>1189.334597738979</v>
+        <v>1527.360679530236</v>
       </c>
       <c r="P12" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q12" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R12" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S12" t="n">
-        <v>1781.812001413547</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T12" t="n">
-        <v>1639.932065711226</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U12" t="n">
-        <v>1455.163869630862</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V12" t="n">
-        <v>1250.190730770128</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W12" t="n">
-        <v>1053.669353603346</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X12" t="n">
-        <v>890.1920073700086</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y12" t="n">
-        <v>750.499118723301</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>468.6936525335126</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="C13" t="n">
-        <v>468.6936525335126</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="D13" t="n">
-        <v>468.6936525335126</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E13" t="n">
-        <v>468.6936525335126</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F13" t="n">
-        <v>464.2704247291205</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G13" t="n">
-        <v>298.0134550233526</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H13" t="n">
-        <v>154.217186531507</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I13" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J13" t="n">
-        <v>111.939946495941</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K13" t="n">
-        <v>338.4675477017781</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>693.1568689961989</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M13" t="n">
-        <v>1084.34266396645</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N13" t="n">
-        <v>1461.834174842485</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O13" t="n">
-        <v>1817.262303522249</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2107.86151544415</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2187.823032372085</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S13" t="n">
-        <v>2017.687984891219</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T13" t="n">
-        <v>1774.348637117119</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="U13" t="n">
-        <v>1494.164188617424</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="V13" t="n">
-        <v>1212.452721225452</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="W13" t="n">
-        <v>937.6003173979655</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="X13" t="n">
-        <v>695.0364208437705</v>
+        <v>1599.766804425551</v>
       </c>
       <c r="Y13" t="n">
-        <v>468.6936525335126</v>
+        <v>1373.424036115293</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>627.2772217199924</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C14" t="n">
-        <v>627.2772217199924</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D14" t="n">
-        <v>627.2772217199924</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E14" t="n">
-        <v>493.6845519388631</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F14" t="n">
-        <v>493.6845519388631</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G14" t="n">
-        <v>89.34548952831176</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H14" t="n">
-        <v>89.34548952831176</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I14" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>417.0520770886785</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
-        <v>417.0520770886785</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="L14" t="n">
-        <v>417.0520770886785</v>
+        <v>1352.329819853103</v>
       </c>
       <c r="M14" t="n">
-        <v>417.0520770886785</v>
+        <v>2356.615921272161</v>
       </c>
       <c r="N14" t="n">
-        <v>801.1857969764337</v>
+        <v>3332.866979758862</v>
       </c>
       <c r="O14" t="n">
-        <v>1474.987448089748</v>
+        <v>4178.011629909674</v>
       </c>
       <c r="P14" t="n">
-        <v>2148.789099203062</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="Q14" t="n">
-        <v>2604.874578707245</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R14" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S14" t="n">
-        <v>2618.063619462288</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="T14" t="n">
-        <v>2618.063619462288</v>
+        <v>4787.617036682362</v>
       </c>
       <c r="U14" t="n">
-        <v>2618.063619462288</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V14" t="n">
-        <v>2260.574204588538</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W14" t="n">
-        <v>1864.182854888885</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X14" t="n">
-        <v>1452.462856056632</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y14" t="n">
-        <v>1047.125586011523</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>621.5721093032382</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C15" t="n">
-        <v>504.066205820743</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>400.226247336028</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E15" t="n">
-        <v>295.5243136089652</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F15" t="n">
-        <v>201.8784832918694</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G15" t="n">
-        <v>107.8247115094734</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H15" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J15" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K15" t="n">
-        <v>644.9335448401225</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L15" t="n">
-        <v>644.9335448401225</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M15" t="n">
-        <v>725.1891208761992</v>
+        <v>819.4496289866299</v>
       </c>
       <c r="N15" t="n">
-        <v>725.1891208761992</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O15" t="n">
-        <v>1398.990771989513</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P15" t="n">
-        <v>1398.990771989513</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q15" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R15" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S15" t="n">
-        <v>1781.812001413547</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T15" t="n">
-        <v>1639.932065711226</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U15" t="n">
-        <v>1455.163869630862</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V15" t="n">
-        <v>1250.190730770128</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W15" t="n">
-        <v>1053.669353603346</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X15" t="n">
-        <v>890.1920073700086</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y15" t="n">
-        <v>750.499118723301</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1137.62974079602</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="C16" t="n">
-        <v>965.6571776749358</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="D16" t="n">
-        <v>802.3404048017065</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E16" t="n">
-        <v>636.1321989545601</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F16" t="n">
-        <v>464.2704247291205</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G16" t="n">
-        <v>298.0134550233526</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H16" t="n">
-        <v>154.217186531507</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I16" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J16" t="n">
-        <v>111.939946495941</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K16" t="n">
-        <v>338.4675477017781</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>693.1568689961989</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M16" t="n">
-        <v>1084.34266396645</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N16" t="n">
-        <v>1461.834174842485</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O16" t="n">
-        <v>1817.262303522249</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2107.86151544415</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S16" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T16" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="U16" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="V16" t="n">
-        <v>2071.554778200025</v>
+        <v>2117.183104807232</v>
       </c>
       <c r="W16" t="n">
-        <v>1796.702374372538</v>
+        <v>1842.330700979745</v>
       </c>
       <c r="X16" t="n">
-        <v>1554.138477818344</v>
+        <v>1599.766804425551</v>
       </c>
       <c r="Y16" t="n">
-        <v>1327.795709508086</v>
+        <v>1373.424036115293</v>
       </c>
     </row>
     <row r="17">
@@ -5513,28 +5515,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L17" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N17" t="n">
-        <v>3950.770911629316</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O17" t="n">
-        <v>3950.770911629316</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P17" t="n">
-        <v>4659.050190787244</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5589,28 +5591,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>390.8583291475138</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>1446.844867123559</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N18" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
         <v>1910.990343986338</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>775.6620294727279</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="C19" t="n">
-        <v>603.6894663516439</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D19" t="n">
-        <v>440.3726934784146</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E19" t="n">
-        <v>274.1644876312681</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F19" t="n">
-        <v>102.3027134058285</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G19" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H19" t="n">
         <v>102.3027134058285</v>
@@ -5695,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T19" t="n">
-        <v>2271.4829827684</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U19" t="n">
-        <v>1991.298534268705</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="V19" t="n">
-        <v>1709.587066876733</v>
+        <v>1710.626312340059</v>
       </c>
       <c r="W19" t="n">
-        <v>1434.734663049246</v>
+        <v>1435.773908512572</v>
       </c>
       <c r="X19" t="n">
-        <v>1192.170766495052</v>
+        <v>1193.210011958377</v>
       </c>
       <c r="Y19" t="n">
-        <v>965.8279981847936</v>
+        <v>1193.210011958377</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
         <v>137.1995846623573</v>
@@ -5768,10 +5770,10 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P20" t="n">
-        <v>4573.117879057176</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q20" t="n">
-        <v>5029.203358561359</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5786,16 +5788,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5838,13 +5840,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>102.3027134058285</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N21" t="n">
-        <v>305.3113489363686</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P21" t="n">
         <v>1910.990343986338</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1185.483835930065</v>
+        <v>4017.903765402536</v>
       </c>
       <c r="C22" t="n">
-        <v>1013.511272808982</v>
+        <v>3845.931202281452</v>
       </c>
       <c r="D22" t="n">
-        <v>850.1944999357522</v>
+        <v>3682.614429408222</v>
       </c>
       <c r="E22" t="n">
-        <v>683.9862940886057</v>
+        <v>3516.406223561076</v>
       </c>
       <c r="F22" t="n">
-        <v>512.1245198631661</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I22" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L22" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M22" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N22" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O22" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P22" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q22" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S22" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="T22" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="U22" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="V22" t="n">
-        <v>2001.004273426986</v>
+        <v>4951.828802806542</v>
       </c>
       <c r="W22" t="n">
-        <v>1726.151869599499</v>
+        <v>4676.976398979054</v>
       </c>
       <c r="X22" t="n">
-        <v>1601.992572952389</v>
+        <v>4434.41250242486</v>
       </c>
       <c r="Y22" t="n">
-        <v>1375.649804642131</v>
+        <v>4208.069734114601</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L23" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M23" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N23" t="n">
-        <v>4090.576687723259</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O23" t="n">
-        <v>4935.721337874071</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C24" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D24" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E24" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F24" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G24" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J24" t="n">
-        <v>374.0002026854196</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="K24" t="n">
-        <v>374.0002026854196</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="L24" t="n">
-        <v>374.0002026854196</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="M24" t="n">
-        <v>374.0002026854196</v>
+        <v>4362.434577686964</v>
       </c>
       <c r="N24" t="n">
-        <v>1463.315149158289</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="O24" t="n">
-        <v>1463.315149158289</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="P24" t="n">
-        <v>1463.315149158289</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q24" t="n">
-        <v>1828.971033901635</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R24" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S24" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T24" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U24" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V24" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W24" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X24" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y24" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>985.454412532011</v>
+        <v>4017.903765402536</v>
       </c>
       <c r="C25" t="n">
-        <v>985.454412532011</v>
+        <v>3845.931202281452</v>
       </c>
       <c r="D25" t="n">
-        <v>850.1944999357522</v>
+        <v>3682.614429408222</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886057</v>
+        <v>3516.406223561076</v>
       </c>
       <c r="F25" t="n">
-        <v>512.1245198631661</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I25" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L25" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M25" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N25" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O25" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P25" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q25" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.306816359498</v>
+        <v>4951.828802806542</v>
       </c>
       <c r="W25" t="n">
-        <v>985.454412532011</v>
+        <v>4676.976398979054</v>
       </c>
       <c r="X25" t="n">
-        <v>985.454412532011</v>
+        <v>4434.41250242486</v>
       </c>
       <c r="Y25" t="n">
-        <v>985.454412532011</v>
+        <v>4208.069734114601</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6212,13 +6214,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
@@ -6260,7 +6262,7 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V26" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W26" t="n">
         <v>3777.607131232208</v>
@@ -6312,10 +6314,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>1021.509065974867</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N27" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O27" t="n">
         <v>1910.990343986338</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>373.4203922683193</v>
+        <v>3244.775881075912</v>
       </c>
       <c r="C28" t="n">
-        <v>201.4478291472353</v>
+        <v>3244.775881075912</v>
       </c>
       <c r="D28" t="n">
-        <v>102.3027134058285</v>
+        <v>3244.775881075912</v>
       </c>
       <c r="E28" t="n">
-        <v>102.3027134058285</v>
+        <v>3244.775881075912</v>
       </c>
       <c r="F28" t="n">
-        <v>102.3027134058285</v>
+        <v>3244.775881075912</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058285</v>
+        <v>3078.518911370144</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I28" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L28" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M28" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N28" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O28" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P28" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q28" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R28" t="n">
-        <v>2282.715740818957</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S28" t="n">
-        <v>2112.580693338092</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T28" t="n">
-        <v>1869.241345563992</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U28" t="n">
-        <v>1589.056897064296</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="V28" t="n">
-        <v>1307.345429672325</v>
+        <v>4092.726745831969</v>
       </c>
       <c r="W28" t="n">
-        <v>1032.493025844838</v>
+        <v>3817.874342004482</v>
       </c>
       <c r="X28" t="n">
-        <v>789.9291292906429</v>
+        <v>3575.310445450291</v>
       </c>
       <c r="Y28" t="n">
-        <v>563.5863609803849</v>
+        <v>3348.967677140033</v>
       </c>
     </row>
     <row r="29">
@@ -6549,10 +6551,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O30" t="n">
         <v>1910.990343986338</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>603.8002552472883</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C31" t="n">
-        <v>431.8276921262043</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D31" t="n">
-        <v>268.510919252975</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E31" t="n">
-        <v>102.3027134058285</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F31" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6649,22 +6651,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="T31" t="n">
-        <v>2099.621208542961</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U31" t="n">
-        <v>1819.436760043265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V31" t="n">
-        <v>1537.725292651294</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.872888823807</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X31" t="n">
-        <v>1020.308992269612</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y31" t="n">
-        <v>793.966223959354</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="32">
@@ -6716,10 +6718,10 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6786,7 +6788,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N33" t="n">
         <v>1910.990343986338</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>368.3282513713204</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="C34" t="n">
-        <v>368.3282513713204</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="D34" t="n">
-        <v>368.3282513713204</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="E34" t="n">
-        <v>368.3282513713204</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="F34" t="n">
-        <v>368.3282513713204</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G34" t="n">
-        <v>202.0712816655526</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H34" t="n">
         <v>202.0712816655526</v>
@@ -6880,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2277.623599921958</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S34" t="n">
-        <v>2107.488552441093</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T34" t="n">
-        <v>1864.149204666993</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U34" t="n">
-        <v>1583.964756167297</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V34" t="n">
-        <v>1302.253288775326</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W34" t="n">
-        <v>1027.400884947839</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X34" t="n">
-        <v>784.8369883936441</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y34" t="n">
-        <v>558.4942200833862</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6923,13 +6925,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
@@ -6938,19 +6940,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>651.5495334576516</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>1581.174581076928</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>2585.460682495986</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N35" t="n">
-        <v>3561.711740982687</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O35" t="n">
-        <v>4406.8563911335</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P35" t="n">
         <v>5115.135670291427</v>
@@ -6962,10 +6964,10 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7023,10 +7025,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O36" t="n">
         <v>1910.990343986338</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1185.483835930065</v>
+        <v>437.5920494001418</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808982</v>
+        <v>265.6194862790578</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357522</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886057</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F37" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
@@ -7117,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>2112.580693338092</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U37" t="n">
-        <v>1832.396244838396</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V37" t="n">
-        <v>1550.684777446425</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W37" t="n">
-        <v>1550.684777446425</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X37" t="n">
-        <v>1550.684777446425</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y37" t="n">
-        <v>1375.649804642131</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="38">
@@ -7184,16 +7186,16 @@
         <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>4090.576687723259</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="O38" t="n">
-        <v>4935.721337874071</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P38" t="n">
-        <v>4997.579335409525</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7254,13 +7256,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>1021.509065974867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>1021.509065974867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N39" t="n">
         <v>1021.509065974867</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4017.903765402536</v>
+        <v>3158.801708427964</v>
       </c>
       <c r="C40" t="n">
-        <v>3845.931202281452</v>
+        <v>3106.584417103738</v>
       </c>
       <c r="D40" t="n">
-        <v>3682.614429408222</v>
+        <v>3106.584417103738</v>
       </c>
       <c r="E40" t="n">
-        <v>3516.406223561076</v>
+        <v>3106.584417103738</v>
       </c>
       <c r="F40" t="n">
-        <v>3344.544449335636</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="G40" t="n">
-        <v>3178.287479629868</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="H40" t="n">
-        <v>3034.491211138023</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I40" t="n">
         <v>2934.722642878299</v>
@@ -7354,28 +7356,28 @@
         <v>5115.135670291427</v>
       </c>
       <c r="R40" t="n">
-        <v>5115.135670291427</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S40" t="n">
-        <v>5115.135670291427</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T40" t="n">
-        <v>5115.135670291427</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U40" t="n">
-        <v>4834.951221791732</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="V40" t="n">
-        <v>4834.951221791732</v>
+        <v>4092.726745831969</v>
       </c>
       <c r="W40" t="n">
-        <v>4676.976398979054</v>
+        <v>3817.874342004482</v>
       </c>
       <c r="X40" t="n">
-        <v>4434.41250242486</v>
+        <v>3575.310445450287</v>
       </c>
       <c r="Y40" t="n">
-        <v>4208.069734114601</v>
+        <v>3348.967677140029</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1840.725840297008</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C41" t="n">
-        <v>1413.825110310308</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D41" t="n">
-        <v>990.5324894953085</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E41" t="n">
-        <v>883.9118624929341</v>
+        <v>1153.242781067552</v>
       </c>
       <c r="F41" t="n">
-        <v>458.7876806823343</v>
+        <v>728.1185992569519</v>
       </c>
       <c r="G41" t="n">
-        <v>54.44861827178296</v>
+        <v>323.7795368464006</v>
       </c>
       <c r="H41" t="n">
-        <v>54.44861827178296</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I41" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K41" t="n">
-        <v>54.44861827178296</v>
+        <v>815.5852528544891</v>
       </c>
       <c r="L41" t="n">
-        <v>54.44861827178296</v>
+        <v>1745.210300473766</v>
       </c>
       <c r="M41" t="n">
-        <v>127.3841458631196</v>
+        <v>2749.496401892824</v>
       </c>
       <c r="N41" t="n">
-        <v>801.1857969764337</v>
+        <v>3725.747460379525</v>
       </c>
       <c r="O41" t="n">
-        <v>1474.987448089748</v>
+        <v>4570.892110530337</v>
       </c>
       <c r="P41" t="n">
-        <v>2148.789099203062</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="Q41" t="n">
-        <v>2604.874578707245</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R41" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>2618.063619462288</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T41" t="n">
-        <v>2618.063619462288</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U41" t="n">
-        <v>2618.063619462288</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V41" t="n">
-        <v>2260.574204588538</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W41" t="n">
-        <v>2260.574204588538</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X41" t="n">
-        <v>2260.574204588538</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y41" t="n">
-        <v>2260.574204588538</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>621.5721093032382</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C42" t="n">
-        <v>504.066205820743</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>400.226247336028</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E42" t="n">
-        <v>295.5243136089652</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F42" t="n">
-        <v>201.8784832918694</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G42" t="n">
-        <v>107.8247115094734</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H42" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J42" t="n">
-        <v>326.146107551374</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K42" t="n">
-        <v>326.146107551374</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L42" t="n">
-        <v>999.9477586646882</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M42" t="n">
-        <v>999.9477586646882</v>
+        <v>1156.063482855035</v>
       </c>
       <c r="N42" t="n">
-        <v>1673.749409778002</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O42" t="n">
-        <v>1673.749409778002</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P42" t="n">
-        <v>1673.749409778002</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q42" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R42" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S42" t="n">
-        <v>1781.812001413547</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T42" t="n">
-        <v>1639.932065711226</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U42" t="n">
-        <v>1455.163869630862</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V42" t="n">
-        <v>1250.190730770128</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W42" t="n">
-        <v>1053.669353603346</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X42" t="n">
-        <v>890.1920073700086</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y42" t="n">
-        <v>750.499118723301</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>827.5765025984064</v>
+        <v>1083.489499143503</v>
       </c>
       <c r="C43" t="n">
-        <v>655.6039394773223</v>
+        <v>911.5169360224189</v>
       </c>
       <c r="D43" t="n">
-        <v>492.287166604093</v>
+        <v>748.2001631491896</v>
       </c>
       <c r="E43" t="n">
-        <v>326.0789607569466</v>
+        <v>581.9919573020431</v>
       </c>
       <c r="F43" t="n">
-        <v>154.217186531507</v>
+        <v>410.1301830766035</v>
       </c>
       <c r="G43" t="n">
-        <v>154.217186531507</v>
+        <v>243.8732133708357</v>
       </c>
       <c r="H43" t="n">
-        <v>154.217186531507</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I43" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J43" t="n">
-        <v>111.939946495941</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K43" t="n">
-        <v>338.4675477017781</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L43" t="n">
-        <v>693.1568689961989</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M43" t="n">
-        <v>1084.34266396645</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N43" t="n">
-        <v>1461.834174842485</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O43" t="n">
-        <v>1817.262303522249</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P43" t="n">
-        <v>2107.86151544415</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q43" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R43" t="n">
-        <v>2187.823032372085</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S43" t="n">
-        <v>2017.687984891219</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T43" t="n">
-        <v>1774.348637117119</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="U43" t="n">
-        <v>1571.335571290346</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="V43" t="n">
-        <v>1571.335571290346</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="W43" t="n">
-        <v>1296.483167462859</v>
+        <v>1742.562132720021</v>
       </c>
       <c r="X43" t="n">
-        <v>1053.919270908664</v>
+        <v>1499.998236165826</v>
       </c>
       <c r="Y43" t="n">
-        <v>827.5765025984064</v>
+        <v>1273.655467855569</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1038.997220552245</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C44" t="n">
-        <v>612.0964905655453</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D44" t="n">
-        <v>188.8038697505456</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E44" t="n">
-        <v>54.44861827178296</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F44" t="n">
-        <v>54.44861827178296</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G44" t="n">
-        <v>54.44861827178296</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H44" t="n">
-        <v>54.44861827178296</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I44" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>54.44861827178296</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K44" t="n">
-        <v>728.2502693850971</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L44" t="n">
-        <v>728.2502693850971</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M44" t="n">
-        <v>728.2502693850971</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N44" t="n">
-        <v>1402.051920498411</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O44" t="n">
-        <v>1474.987448089748</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P44" t="n">
-        <v>2148.789099203062</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q44" t="n">
-        <v>2604.874578707245</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R44" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S44" t="n">
-        <v>2618.063619462288</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T44" t="n">
-        <v>2618.063619462288</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U44" t="n">
-        <v>2618.063619462288</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V44" t="n">
-        <v>2260.574204588538</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W44" t="n">
-        <v>1864.182854888885</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X44" t="n">
-        <v>1864.182854888885</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y44" t="n">
-        <v>1458.845584843775</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>621.5721093032382</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C45" t="n">
-        <v>504.066205820743</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D45" t="n">
-        <v>400.226247336028</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E45" t="n">
-        <v>295.5243136089652</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F45" t="n">
-        <v>201.8784832918694</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G45" t="n">
-        <v>107.8247115094734</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H45" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J45" t="n">
-        <v>326.146107551374</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K45" t="n">
-        <v>326.146107551374</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L45" t="n">
-        <v>326.146107551374</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M45" t="n">
-        <v>999.9477586646882</v>
+        <v>1156.063482855035</v>
       </c>
       <c r="N45" t="n">
-        <v>1189.334597738979</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O45" t="n">
-        <v>1189.334597738979</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P45" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q45" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R45" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S45" t="n">
-        <v>1781.812001413547</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T45" t="n">
-        <v>1639.932065711226</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U45" t="n">
-        <v>1455.163869630862</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V45" t="n">
-        <v>1250.190730770128</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W45" t="n">
-        <v>1053.669353603346</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X45" t="n">
-        <v>890.1920073700086</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y45" t="n">
-        <v>750.499118723301</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1037.861172536296</v>
+        <v>3155.89939208929</v>
       </c>
       <c r="C46" t="n">
-        <v>865.8886094152118</v>
+        <v>3155.89939208929</v>
       </c>
       <c r="D46" t="n">
-        <v>702.5718365419825</v>
+        <v>3155.89939208929</v>
       </c>
       <c r="E46" t="n">
-        <v>536.363630694836</v>
+        <v>2989.691186242144</v>
       </c>
       <c r="F46" t="n">
-        <v>364.5018564693964</v>
+        <v>2989.691186242144</v>
       </c>
       <c r="G46" t="n">
-        <v>198.2448867636286</v>
+        <v>2823.434216536376</v>
       </c>
       <c r="H46" t="n">
-        <v>54.44861827178296</v>
+        <v>2823.434216536376</v>
       </c>
       <c r="I46" t="n">
-        <v>54.44861827178296</v>
+        <v>2823.434216536376</v>
       </c>
       <c r="J46" t="n">
-        <v>111.939946495941</v>
+        <v>2880.925544760534</v>
       </c>
       <c r="K46" t="n">
-        <v>338.4675477017781</v>
+        <v>3107.453145966371</v>
       </c>
       <c r="L46" t="n">
-        <v>693.1568689961989</v>
+        <v>3462.142467260792</v>
       </c>
       <c r="M46" t="n">
-        <v>1084.34266396645</v>
+        <v>3853.328262231043</v>
       </c>
       <c r="N46" t="n">
-        <v>1461.834174842485</v>
+        <v>4230.819773107079</v>
       </c>
       <c r="O46" t="n">
-        <v>1817.262303522249</v>
+        <v>4586.247901786842</v>
       </c>
       <c r="P46" t="n">
-        <v>2107.86151544415</v>
+        <v>4876.847113708743</v>
       </c>
       <c r="Q46" t="n">
-        <v>2234.861645684911</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R46" t="n">
-        <v>2234.861645684911</v>
+        <v>4956.808630636678</v>
       </c>
       <c r="S46" t="n">
-        <v>2234.861645684911</v>
+        <v>4786.673583155813</v>
       </c>
       <c r="T46" t="n">
-        <v>2234.861645684911</v>
+        <v>4543.334235381712</v>
       </c>
       <c r="U46" t="n">
-        <v>2234.861645684911</v>
+        <v>4263.149786882017</v>
       </c>
       <c r="V46" t="n">
-        <v>1971.786209940301</v>
+        <v>3981.438319490046</v>
       </c>
       <c r="W46" t="n">
-        <v>1696.933806112814</v>
+        <v>3706.585915662559</v>
       </c>
       <c r="X46" t="n">
-        <v>1454.369909558619</v>
+        <v>3464.022019108364</v>
       </c>
       <c r="Y46" t="n">
-        <v>1228.027141248361</v>
+        <v>3346.065360801356</v>
       </c>
     </row>
   </sheetData>
@@ -7979,28 +7981,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M2" t="n">
-        <v>718.0389912967188</v>
+        <v>547.9768619480851</v>
       </c>
       <c r="N2" t="n">
-        <v>690.3880490742669</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>717.9986877533111</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>718.1830902075183</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>178.8848775931268</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L3" t="n">
-        <v>703.1228151115166</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>610.317899376567</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8216,7 +8218,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>716.3723291920963</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
@@ -8225,19 +8227,19 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>717.8873512317331</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>690.4993855958451</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>718.1830902075183</v>
+        <v>452.5855512828693</v>
       </c>
       <c r="Q5" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>335.1033351244547</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>703.704508909615</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>461.4026962257055</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8453,28 +8455,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>716.3723291920963</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>718.9197708299099</v>
+        <v>548.8576414812763</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>690.4993855958451</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>718.1830902075183</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,25 +8534,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>488.1409796453348</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>703.1228151115166</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>703.704508909615</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>267.0107895760206</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8690,28 +8692,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>718.9197708299099</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>313.0640671177295</v>
       </c>
       <c r="N11" t="n">
-        <v>717.8873512317331</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>111.0632094482834</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>718.1830902075183</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,22 +8771,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>487.0847740255431</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>703.7796181195092</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>702.3785696021157</v>
+        <v>407.0273017394389</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
@@ -8930,22 +8932,22 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>936.9478163288022</v>
       </c>
       <c r="M14" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>425.2934813069261</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>718.1830902075183</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9006,25 +9008,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>104.1630189326075</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O15" t="n">
-        <v>703.7796181195092</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9173,19 +9175,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
-        <v>882.1738474735962</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>753.0089771212694</v>
+        <v>466.324307620685</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
         <v>20.61111433333334</v>
@@ -9246,13 +9248,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>306.4635440675361</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
@@ -9261,7 +9263,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9416,13 +9418,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>37.5753618102313</v>
+        <v>124.3756766890881</v>
       </c>
       <c r="Q20" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>121.8329647736533</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9486,16 +9488,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N21" t="n">
-        <v>226.402256022168</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O21" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9653,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>218.8019602116015</v>
+        <v>466.324307620685</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,7 +9716,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
         <v>22.39923383333334</v>
@@ -9723,10 +9725,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574439</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9735,10 +9737,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>392.0964168176105</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9960,13 +9962,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>951.5880457335786</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O27" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
@@ -10197,13 +10199,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P30" t="n">
         <v>21.77084120482866</v>
@@ -10364,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>466.324307620685</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,10 +10436,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N33" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10586,7 +10588,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
@@ -10601,7 +10603,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
@@ -10671,13 +10673,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>749.7358553685299</v>
+        <v>951.5880457335786</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
@@ -10832,19 +10834,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>882.1738474735962</v>
       </c>
       <c r="O38" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P38" t="n">
-        <v>100.0581876036193</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,16 +10904,16 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>354.5569311593796</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O39" t="n">
         <v>921.6378271075471</v>
@@ -11060,28 +11062,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>111.103512991691</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>717.8873512317331</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>718.1830902075183</v>
+        <v>474.9037794053499</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,19 +11138,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>703.1228151115166</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N42" t="n">
-        <v>701.9507566108286</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
@@ -11157,7 +11159,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>214.0468757377568</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11294,25 +11296,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>716.3723291920963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>717.8873512317331</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O44" t="n">
-        <v>111.0632094482834</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>718.1830902075183</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
@@ -11373,7 +11375,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
@@ -11382,16 +11384,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>703.704508909615</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N45" t="n">
-        <v>212.6428656623198</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>702.3785696021157</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
         <v>22.7470382889785</v>
@@ -23273,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>153.814302551372</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,22 +23311,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>4.64841005134187</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>165.764160956837</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23470,16 +23472,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>22.1301998828651</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,22 +23497,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>289.460427370303</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>4.64841005134187</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>81.84451217978966</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23902,10 +23904,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>229.7855238263079</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -24184,13 +24186,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>117.2205539080147</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>117.2205539080144</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>27.77629167420079</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24412,25 +24414,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>163.7887810877132</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>85.11443092146585</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>63.52994056050431</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
@@ -24613,10 +24615,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24847,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,13 +24891,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>59.64236734312274</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
@@ -25084,13 +25086,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>165.7641609568371</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.52700769166967</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>50.79471755090449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>118.5577190788902</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>115.7088052046616</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25634,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>316.1627497212704</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>107.9720312369327</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,22 +25681,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,13 +25842,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>76.39966884619344</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>195.4631970949503</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25871,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>288.705471489646</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,10 +25918,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>107.972031236933</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25928,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26023,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
         <v>98.77088257712678</v>
@@ -26068,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>18.44967133088738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>107.3022489032168</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>727425.428500616</v>
+        <v>721545.0476331649</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>727425.428500616</v>
+        <v>721545.0476331649</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>727425.428500616</v>
+        <v>721545.0476331649</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>491450.1706314866</v>
+        <v>721032.5225047095</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>491450.1706314866</v>
+        <v>721032.5225047095</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>732231.6439959689</v>
+        <v>732231.6439959687</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>732231.6439959689</v>
+        <v>732231.6439959687</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>732231.6439959687</v>
+        <v>732231.6439959686</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>732231.6439959689</v>
+        <v>732231.6439959687</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>491450.1706314866</v>
+        <v>721032.5225047095</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>491450.1706314866</v>
+        <v>721032.5225047097</v>
       </c>
     </row>
   </sheetData>
@@ -26317,25 +26319,25 @@
         <v>349465.6008066978</v>
       </c>
       <c r="D2" t="n">
-        <v>349465.6008066977</v>
+        <v>349465.6008066979</v>
       </c>
       <c r="E2" t="n">
-        <v>226348.0749619346</v>
+        <v>332061.4976705925</v>
       </c>
       <c r="F2" t="n">
-        <v>226348.0749619347</v>
+        <v>332061.4976705926</v>
       </c>
       <c r="G2" t="n">
+        <v>337218.2418824685</v>
+      </c>
+      <c r="H2" t="n">
         <v>337218.2418824686</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>337218.2418824684</v>
+      </c>
+      <c r="J2" t="n">
         <v>337218.2418824685</v>
-      </c>
-      <c r="I2" t="n">
-        <v>337218.2418824685</v>
-      </c>
-      <c r="J2" t="n">
-        <v>337218.2418824684</v>
       </c>
       <c r="K2" t="n">
         <v>337218.2418824685</v>
@@ -26350,10 +26352,10 @@
         <v>337218.2418824684</v>
       </c>
       <c r="O2" t="n">
-        <v>226348.0749619346</v>
+        <v>332061.4976705926</v>
       </c>
       <c r="P2" t="n">
-        <v>226348.0749619346</v>
+        <v>332061.4976705924</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>228087.303763684</v>
+        <v>186404.7334147372</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>207432.2876165609</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>163951.1208101861</v>
+        <v>7625.622083481478</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>178076.9284887798</v>
+        <v>145533.6699348165</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>173130.4912056396</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175252.6676427299</v>
+        <v>191243.7287526203</v>
       </c>
       <c r="C4" t="n">
-        <v>175252.6676427299</v>
+        <v>191243.7287526203</v>
       </c>
       <c r="D4" t="n">
-        <v>175252.6676427299</v>
+        <v>191243.7287526203</v>
       </c>
       <c r="E4" t="n">
-        <v>58133.61734672054</v>
+        <v>85368.22527849904</v>
       </c>
       <c r="F4" t="n">
-        <v>58133.61734672054</v>
+        <v>85368.22527849907</v>
       </c>
       <c r="G4" t="n">
-        <v>86696.74064784776</v>
+        <v>86696.74064784778</v>
       </c>
       <c r="H4" t="n">
         <v>86696.74064784776</v>
@@ -26445,19 +26447,19 @@
         <v>86696.74064784776</v>
       </c>
       <c r="L4" t="n">
+        <v>86696.74064784778</v>
+      </c>
+      <c r="M4" t="n">
         <v>86696.74064784776</v>
-      </c>
-      <c r="M4" t="n">
-        <v>86696.74064784778</v>
       </c>
       <c r="N4" t="n">
         <v>86696.74064784778</v>
       </c>
       <c r="O4" t="n">
-        <v>58133.61734672054</v>
+        <v>85368.22527849907</v>
       </c>
       <c r="P4" t="n">
-        <v>58133.61734672054</v>
+        <v>85368.22527849906</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75008.54988655505</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="C5" t="n">
-        <v>75008.54988655505</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>75008.54988655505</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>41380.94988655505</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="F5" t="n">
-        <v>41380.94988655505</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26506,10 +26508,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>41380.94988655505</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="P5" t="n">
-        <v>41380.94988655505</v>
+        <v>76058.47810803246</v>
       </c>
     </row>
     <row r="6">
@@ -26519,31 +26521,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-128882.920486271</v>
+        <v>-95629.11239808775</v>
       </c>
       <c r="C6" t="n">
-        <v>99204.38327741287</v>
+        <v>90775.62101664938</v>
       </c>
       <c r="D6" t="n">
-        <v>99204.38327741281</v>
+        <v>90775.62101664944</v>
       </c>
       <c r="E6" t="n">
-        <v>126833.507728659</v>
+        <v>-36797.49333249993</v>
       </c>
       <c r="F6" t="n">
-        <v>126833.5077286591</v>
+        <v>170634.794284061</v>
       </c>
       <c r="G6" t="n">
-        <v>8820.318236005071</v>
+        <v>165145.8169627095</v>
       </c>
       <c r="H6" t="n">
-        <v>172771.4390461911</v>
+        <v>172771.4390461912</v>
       </c>
       <c r="I6" t="n">
-        <v>172771.439046191</v>
+        <v>172771.4390461909</v>
       </c>
       <c r="J6" t="n">
-        <v>-5305.489442588834</v>
+        <v>27237.76911137457</v>
       </c>
       <c r="K6" t="n">
         <v>172771.4390461911</v>
@@ -26552,16 +26554,16 @@
         <v>172771.439046191</v>
       </c>
       <c r="M6" t="n">
-        <v>172771.4390461911</v>
+        <v>-359.0521594485472</v>
       </c>
       <c r="N6" t="n">
         <v>172771.4390461909</v>
       </c>
       <c r="O6" t="n">
-        <v>126833.507728659</v>
+        <v>170634.7942840611</v>
       </c>
       <c r="P6" t="n">
-        <v>126833.507728659</v>
+        <v>170634.7942840609</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>680.607728397287</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="F4" t="n">
-        <v>680.607728397287</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>680.607728397287</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="P4" t="n">
-        <v>680.607728397287</v>
+        <v>1250.961810987376</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>694.733997871782</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>598.1761891755698</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.6077283972871</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>598.1761891755698</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>272.3699127117746</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27385,10 +27387,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>294.4268162059294</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>117.2205539080136</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27549,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27582,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>107.0918443115343</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,22 +27618,22 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>15.96521652973712</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,19 +27672,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>51.96789352643407</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>110.0981677402031</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
@@ -27789,7 +27791,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -27837,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>228.7382883108599</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,25 +27855,25 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>363.5623613875024</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
@@ -27916,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>272.3699127117746</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>109.9884867335148</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>13.55037112485891</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34699,28 +34701,28 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M2" t="n">
-        <v>680.607728397287</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="N2" t="n">
-        <v>653.1084262398208</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>158.2737632597934</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L3" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>587.1460096543448</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34936,7 +34938,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,19 +34947,19 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
-        <v>653.1084262398209</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>680.607728397287</v>
+        <v>415.010189472638</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>312.7041012911214</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>440.0596680121639</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35173,28 +35175,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>680.607728397287</v>
+        <v>510.5455990486534</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>653.1084262398209</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>465.7417458120015</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>245.6677613624789</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,28 +35412,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>680.607728397287</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>275.6328042182977</v>
       </c>
       <c r="N11" t="n">
-        <v>680.607728397287</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>73.67225009225932</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>680.607728397287</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>465.7417458120015</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>680.607728397287</v>
+        <v>385.2564605346102</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35650,22 +35652,22 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>898.6357738961793</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>388.0138584724801</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>680.607728397287</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>81.06623842027952</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O15" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35893,19 +35895,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
-        <v>844.8942246391501</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>715.433615311038</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35966,13 +35968,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>283.9484573533065</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35981,7 +35983,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36136,13 +36138,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>86.80031487885682</v>
       </c>
       <c r="Q20" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>86.80031487885682</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,16 +36208,16 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N21" t="n">
-        <v>205.0592278086264</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O21" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36373,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>181.2265984013702</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36443,10 +36445,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439022</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36455,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>369.349378528632</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36680,13 +36682,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>928.4912652212506</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O27" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36917,13 +36919,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37084,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>428.7489458104537</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,10 +37156,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N33" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37306,7 +37308,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
@@ -37321,7 +37323,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37391,13 +37393,13 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>726.6390748562019</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37552,19 +37554,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>844.8942246391501</v>
       </c>
       <c r="O38" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>62.48282579338804</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>332.04184444515</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O39" t="n">
         <v>898.4659373853249</v>
@@ -37780,28 +37782,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>73.67225009225919</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>680.607728397287</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>680.607728397287</v>
+        <v>437.3284175951186</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N42" t="n">
-        <v>680.607728397287</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37877,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>191.2998374487783</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>680.607728397287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>680.607728397287</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O44" t="n">
-        <v>73.67225009225932</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>680.607728397287</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38102,16 +38104,16 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>680.607728397287</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N45" t="n">
-        <v>191.2998374487782</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>765005.9832813835</v>
+        <v>764287.9931665251</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>698313.6830760738</v>
+        <v>698313.6830760741</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8403319.833531942</v>
+        <v>8403319.83353194</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>143.2799679368401</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
@@ -673,7 +673,7 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>24.30646610263425</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
         <v>401.2838973446586</v>
@@ -819,25 +819,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>53.03228358185952</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>38.43078274552336</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
@@ -901,16 +901,16 @@
         <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>384.3413347251765</v>
       </c>
       <c r="E5" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>340.4595426762225</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
         <v>1.283897344658556</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>51.58543740429392</v>
+        <v>133.9073134702961</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,13 +1135,13 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>142.6892461777147</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
         <v>420.8729399924937</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>135.2328861321556</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
         <v>1.283897344658556</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>226.587886463794</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1387,7 +1387,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>186.9176635037728</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>214.0679051944713</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
@@ -1530,16 +1530,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
@@ -1548,7 +1548,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
@@ -1584,19 +1584,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>218.0080577057878</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>185.5331368853836</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>411.0014705972732</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>214.0679051944713</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
@@ -1773,7 +1773,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
@@ -1785,7 +1785,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>93.45480718637303</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1864,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446598</v>
       </c>
     </row>
     <row r="18">
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>106.4197968451553</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -2070,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>255.771360309553</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
@@ -2244,22 +2244,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>161.6737988100367</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2481,10 +2481,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
@@ -2493,10 +2493,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>3.554365680750179</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>115.1055716303381</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2617,7 +2617,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026577</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
         <v>407.6027988439302</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>103.1498781034791</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
@@ -2778,7 +2778,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886491</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2955,7 +2955,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
@@ -2967,7 +2967,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>164.7160191487195</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>38.43078274552268</v>
       </c>
       <c r="F34" t="n">
-        <v>4.378995526348093</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
@@ -3249,7 +3249,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>78.16614128474215</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>4.370338608491547</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
@@ -3663,10 +3663,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>51.69511841098299</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3723,13 +3723,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>50.35656538886825</v>
       </c>
     </row>
     <row r="41">
@@ -3903,19 +3903,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>76.64068269426186</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -4030,10 +4030,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>110.7442840088803</v>
       </c>
       <c r="U44" t="n">
-        <v>147.7993290726188</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -4137,7 +4137,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>8.209635605837631</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
@@ -4203,7 +4203,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>116.7770917239385</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4309,16 +4309,16 @@
         <v>866.7353935451185</v>
       </c>
       <c r="C2" t="n">
-        <v>843.8750675988227</v>
+        <v>439.8346635584186</v>
       </c>
       <c r="D2" t="n">
-        <v>824.622850824227</v>
+        <v>420.5824467838229</v>
       </c>
       <c r="E2" t="n">
-        <v>802.6863150124886</v>
+        <v>398.6459109720846</v>
       </c>
       <c r="F2" t="n">
-        <v>781.6025372422929</v>
+        <v>377.5621332018889</v>
       </c>
       <c r="G2" t="n">
         <v>377.2634748317415</v>
@@ -4330,22 +4330,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L2" t="n">
-        <v>1145.829295018124</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M2" t="n">
-        <v>1651.269438076291</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N2" t="n">
-        <v>1651.269438076291</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O2" t="n">
-        <v>1651.269438076291</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P2" t="n">
         <v>1651.269438076291</v>
@@ -4357,25 +4357,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T2" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V2" t="n">
-        <v>2224.911252462377</v>
+        <v>2095.99197237326</v>
       </c>
       <c r="W2" t="n">
-        <v>1828.519902762723</v>
+        <v>1699.600622673607</v>
       </c>
       <c r="X2" t="n">
-        <v>1416.799903930471</v>
+        <v>1691.921027881758</v>
       </c>
       <c r="Y2" t="n">
-        <v>1011.462633885361</v>
+        <v>1286.583757836649</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C3" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E3" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>563.6534869019529</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G3" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H3" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J3" t="n">
-        <v>572.914647509062</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K3" t="n">
-        <v>1123.5801824935</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L3" t="n">
-        <v>1123.5801824935</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="M3" t="n">
-        <v>1674.245717477938</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="N3" t="n">
-        <v>1674.245717477938</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="O3" t="n">
-        <v>1674.245717477938</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P3" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q3" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R3" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S3" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T3" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U3" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V3" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W3" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X3" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y3" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1009.2747476664</v>
+        <v>551.6493352690004</v>
       </c>
       <c r="C4" t="n">
-        <v>955.7067844524004</v>
+        <v>379.6767721479164</v>
       </c>
       <c r="D4" t="n">
-        <v>792.3900115791711</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E4" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F4" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G4" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I4" t="n">
         <v>44.49822504924753</v>
@@ -4512,28 +4512,28 @@
         <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2224.911252462377</v>
+        <v>2186.092279992151</v>
       </c>
       <c r="S4" t="n">
-        <v>2224.911252462377</v>
+        <v>2015.957232511286</v>
       </c>
       <c r="T4" t="n">
-        <v>2224.911252462377</v>
+        <v>1772.617884737186</v>
       </c>
       <c r="U4" t="n">
-        <v>2224.911252462377</v>
+        <v>1492.43343623749</v>
       </c>
       <c r="V4" t="n">
-        <v>1943.199785070405</v>
+        <v>1210.721968845519</v>
       </c>
       <c r="W4" t="n">
-        <v>1668.347381242918</v>
+        <v>1210.721968845519</v>
       </c>
       <c r="X4" t="n">
-        <v>1425.783484688724</v>
+        <v>968.1580722913241</v>
       </c>
       <c r="Y4" t="n">
-        <v>1199.440716378466</v>
+        <v>741.8153039810661</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1376.947823099961</v>
+        <v>937.8383686740289</v>
       </c>
       <c r="C5" t="n">
-        <v>1354.087497153665</v>
+        <v>914.9780427277331</v>
       </c>
       <c r="D5" t="n">
-        <v>1334.83528037907</v>
+        <v>526.7544722982618</v>
       </c>
       <c r="E5" t="n">
-        <v>908.8583405269275</v>
+        <v>100.7775324461193</v>
       </c>
       <c r="F5" t="n">
-        <v>483.7341587163277</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G5" t="n">
         <v>79.39509630577632</v>
@@ -4567,25 +4567,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>595.1637600336857</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="M5" t="n">
-        <v>595.1637600336857</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N5" t="n">
-        <v>1145.829295018124</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O5" t="n">
-        <v>1696.494830002562</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
         <v>2107.354917580474</v>
@@ -4594,25 +4594,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2003.98568150701</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>1745.630772103422</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V5" t="n">
-        <v>1745.630772103422</v>
+        <v>1763.054543461766</v>
       </c>
       <c r="W5" t="n">
-        <v>1401.732244147642</v>
+        <v>1366.663193762113</v>
       </c>
       <c r="X5" t="n">
-        <v>1394.052649355793</v>
+        <v>954.9431949298605</v>
       </c>
       <c r="Y5" t="n">
-        <v>1392.755783351087</v>
+        <v>953.6463289251549</v>
       </c>
     </row>
     <row r="6">
@@ -4646,22 +4646,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L6" t="n">
-        <v>316.1957143288386</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M6" t="n">
-        <v>866.8612493132769</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N6" t="n">
         <v>1302.520320645319</v>
       </c>
       <c r="O6" t="n">
-        <v>1853.185855629757</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P6" t="n">
         <v>1853.185855629757</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268.5772905989112</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="C7" t="n">
-        <v>96.60472747782725</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="D7" t="n">
-        <v>44.49822504924753</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>44.49822504924753</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>44.49822504924753</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4767,10 +4767,10 @@
         <v>927.6499241754298</v>
       </c>
       <c r="X7" t="n">
-        <v>685.0860276212348</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="Y7" t="n">
-        <v>458.7432593109769</v>
+        <v>927.6499241754298</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1674.816201625927</v>
+        <v>2200.126831414696</v>
       </c>
       <c r="C8" t="n">
-        <v>1247.915471639227</v>
+        <v>2055.996279720035</v>
       </c>
       <c r="D8" t="n">
-        <v>1228.663254864631</v>
+        <v>1632.703658905035</v>
       </c>
       <c r="E8" t="n">
         <v>1206.726719052893</v>
@@ -4804,22 +4804,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
+        <v>957.7672188505812</v>
+      </c>
+      <c r="M8" t="n">
+        <v>957.7672188505812</v>
+      </c>
+      <c r="N8" t="n">
+        <v>957.7672188505812</v>
+      </c>
+      <c r="O8" t="n">
         <v>1100.603903091853</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1651.269438076291</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1651.269438076291</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1651.269438076291</v>
       </c>
       <c r="P8" t="n">
         <v>1651.269438076291</v>
@@ -4843,13 +4843,13 @@
         <v>2224.911252462377</v>
       </c>
       <c r="W8" t="n">
-        <v>1828.519902762723</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X8" t="n">
-        <v>1691.921027881758</v>
+        <v>2217.231657670528</v>
       </c>
       <c r="Y8" t="n">
-        <v>1690.624161877053</v>
+        <v>2215.934791665823</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924753</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="K9" t="n">
-        <v>595.1637600336857</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="L9" t="n">
-        <v>595.1637600336857</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="M9" t="n">
-        <v>595.1637600336857</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="N9" t="n">
-        <v>838.3748437825398</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="O9" t="n">
-        <v>1389.040378766978</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P9" t="n">
-        <v>1389.040378766978</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4989,19 +4989,19 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>2054.776204981511</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T10" t="n">
-        <v>2054.776204981511</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U10" t="n">
-        <v>2054.776204981511</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V10" t="n">
-        <v>1773.064737589539</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W10" t="n">
-        <v>1773.064737589539</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X10" t="n">
         <v>1544.188084595808</v>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2538.475729536478</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C11" t="n">
-        <v>2111.574999549778</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D11" t="n">
-        <v>1688.282378734778</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E11" t="n">
-        <v>1262.305438882635</v>
+        <v>1153.242781067552</v>
       </c>
       <c r="F11" t="n">
-        <v>837.1812570720355</v>
+        <v>728.1185992569519</v>
       </c>
       <c r="G11" t="n">
-        <v>432.8421946614841</v>
+        <v>323.7795368464006</v>
       </c>
       <c r="H11" t="n">
         <v>134.9738161355189</v>
@@ -5041,16 +5041,16 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K11" t="n">
-        <v>815.5852528544891</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L11" t="n">
-        <v>1745.210300473766</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M11" t="n">
-        <v>2018.08677664988</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N11" t="n">
         <v>2994.337835136581</v>
@@ -5068,25 +5068,25 @@
         <v>5003.847243949504</v>
       </c>
       <c r="S11" t="n">
-        <v>5003.847243949504</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T11" t="n">
-        <v>4787.617036682362</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U11" t="n">
-        <v>4529.262127278774</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V11" t="n">
-        <v>4171.772712405023</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W11" t="n">
-        <v>3775.38136270537</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X11" t="n">
-        <v>3363.661363873117</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y11" t="n">
-        <v>2958.324093828008</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="12">
@@ -5123,19 +5123,19 @@
         <v>100.0769448789901</v>
       </c>
       <c r="K12" t="n">
-        <v>690.5618714473296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L12" t="n">
-        <v>1527.360679530236</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M12" t="n">
-        <v>1527.360679530236</v>
+        <v>819.4496289866299</v>
       </c>
       <c r="N12" t="n">
-        <v>1527.360679530236</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O12" t="n">
-        <v>1527.360679530236</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P12" t="n">
         <v>1908.7645754595</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1183.258067403227</v>
+        <v>410.1301830766035</v>
       </c>
       <c r="C13" t="n">
-        <v>1011.285504282143</v>
+        <v>410.1301830766035</v>
       </c>
       <c r="D13" t="n">
-        <v>847.9687314089136</v>
+        <v>410.1301830766035</v>
       </c>
       <c r="E13" t="n">
-        <v>681.7605255617672</v>
+        <v>410.1301830766035</v>
       </c>
       <c r="F13" t="n">
-        <v>509.8987513363276</v>
+        <v>410.1301830766035</v>
       </c>
       <c r="G13" t="n">
-        <v>343.6417816305598</v>
+        <v>243.8732133708357</v>
       </c>
       <c r="H13" t="n">
-        <v>199.8455131387141</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I13" t="n">
         <v>100.0769448789901</v>
@@ -5223,28 +5223,28 @@
         <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2233.451358979291</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S13" t="n">
-        <v>2063.316311498426</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T13" t="n">
-        <v>1819.976963724326</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="U13" t="n">
-        <v>1819.976963724326</v>
+        <v>1586.831128537457</v>
       </c>
       <c r="V13" t="n">
-        <v>1819.976963724326</v>
+        <v>1305.119661145486</v>
       </c>
       <c r="W13" t="n">
-        <v>1819.976963724326</v>
+        <v>1030.267257317999</v>
       </c>
       <c r="X13" t="n">
-        <v>1599.766804425551</v>
+        <v>787.7033607638042</v>
       </c>
       <c r="Y13" t="n">
-        <v>1373.424036115293</v>
+        <v>600.2961517886692</v>
       </c>
     </row>
     <row r="14">
@@ -5281,25 +5281,25 @@
         <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
-        <v>462.6804036958856</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L14" t="n">
-        <v>1352.329819853103</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M14" t="n">
-        <v>2356.615921272161</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N14" t="n">
-        <v>3332.866979758862</v>
+        <v>2994.337835136581</v>
       </c>
       <c r="O14" t="n">
-        <v>4178.011629909674</v>
+        <v>3839.482485287394</v>
       </c>
       <c r="P14" t="n">
-        <v>4886.290909067602</v>
+        <v>4547.761764445321</v>
       </c>
       <c r="Q14" t="n">
-        <v>4886.290909067602</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R14" t="n">
         <v>5003.847243949504</v>
@@ -5308,22 +5308,22 @@
         <v>5003.847243949504</v>
       </c>
       <c r="T14" t="n">
-        <v>4787.617036682362</v>
+        <v>4782.921672994137</v>
       </c>
       <c r="U14" t="n">
-        <v>4529.262127278774</v>
+        <v>4524.566763590549</v>
       </c>
       <c r="V14" t="n">
-        <v>4171.772712405023</v>
+        <v>4167.077348716799</v>
       </c>
       <c r="W14" t="n">
-        <v>3775.38136270537</v>
+        <v>3770.685999017146</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.661363873117</v>
+        <v>3358.966000184893</v>
       </c>
       <c r="Y14" t="n">
-        <v>2958.324093828008</v>
+        <v>2953.628730139784</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J15" t="n">
-        <v>100.0769448789901</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="K15" t="n">
-        <v>100.0769448789901</v>
+        <v>962.2593607269207</v>
       </c>
       <c r="L15" t="n">
-        <v>100.0769448789901</v>
+        <v>962.2593607269207</v>
       </c>
       <c r="M15" t="n">
-        <v>819.4496289866299</v>
+        <v>962.2593607269207</v>
       </c>
       <c r="N15" t="n">
-        <v>1908.7645754595</v>
+        <v>962.2593607269207</v>
       </c>
       <c r="O15" t="n">
-        <v>1908.7645754595</v>
+        <v>962.2593607269207</v>
       </c>
       <c r="P15" t="n">
-        <v>1908.7645754595</v>
+        <v>1678.457077765419</v>
       </c>
       <c r="Q15" t="n">
         <v>1908.7645754595</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1183.258067403227</v>
+        <v>917.2812932963565</v>
       </c>
       <c r="C16" t="n">
-        <v>1011.285504282143</v>
+        <v>745.3087301752724</v>
       </c>
       <c r="D16" t="n">
-        <v>847.9687314089136</v>
+        <v>581.9919573020431</v>
       </c>
       <c r="E16" t="n">
-        <v>681.7605255617672</v>
+        <v>581.9919573020431</v>
       </c>
       <c r="F16" t="n">
-        <v>509.8987513363276</v>
+        <v>410.1301830766035</v>
       </c>
       <c r="G16" t="n">
-        <v>343.6417816305598</v>
+        <v>243.8732133708357</v>
       </c>
       <c r="H16" t="n">
-        <v>199.8455131387141</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I16" t="n">
         <v>100.0769448789901</v>
@@ -5466,22 +5466,22 @@
         <v>2280.489972292118</v>
       </c>
       <c r="T16" t="n">
-        <v>2280.489972292118</v>
+        <v>2037.150624518018</v>
       </c>
       <c r="U16" t="n">
-        <v>2280.489972292118</v>
+        <v>1942.751829380268</v>
       </c>
       <c r="V16" t="n">
-        <v>2117.183104807232</v>
+        <v>1661.040361988296</v>
       </c>
       <c r="W16" t="n">
-        <v>1842.330700979745</v>
+        <v>1386.187958160809</v>
       </c>
       <c r="X16" t="n">
-        <v>1599.766804425551</v>
+        <v>1143.624061606615</v>
       </c>
       <c r="Y16" t="n">
-        <v>1373.424036115293</v>
+        <v>917.2812932963565</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
@@ -5518,25 +5518,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M17" t="n">
-        <v>2751.722170419663</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N17" t="n">
-        <v>3727.973228906364</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O17" t="n">
-        <v>4573.117879057176</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P17" t="n">
-        <v>4997.579335409525</v>
+        <v>4565.888850239604</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>5021.974329743787</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5560,7 +5560,7 @@
         <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5594,19 +5594,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>1210.799010768326</v>
       </c>
       <c r="M18" t="n">
-        <v>821.6753975134684</v>
+        <v>1210.799010768326</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>1210.799010768326</v>
       </c>
       <c r="O18" t="n">
         <v>1910.990343986338</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1085.715267670341</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C19" t="n">
-        <v>913.7427045492574</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D19" t="n">
-        <v>750.4259316760281</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E19" t="n">
-        <v>584.2177258288816</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F19" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
         <v>102.3027134058285</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2235.67712750613</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>1992.33777973203</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U19" t="n">
-        <v>1992.33777973203</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V19" t="n">
-        <v>1710.626312340059</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W19" t="n">
-        <v>1435.773908512572</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X19" t="n">
-        <v>1193.210011958377</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y19" t="n">
-        <v>1193.210011958377</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5761,19 +5761,19 @@
         <v>1747.436069000604</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2720.098147267829</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P20" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5788,16 +5788,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5834,13 +5834,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.289251381874</v>
+        <v>1748.774177950213</v>
       </c>
       <c r="N21" t="n">
         <v>1910.990343986338</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4017.903765402536</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>3845.931202281452</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>3682.614429408222</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>3516.406223561076</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>5115.135670291427</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>5115.135670291427</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>5115.135670291427</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>4951.828802806542</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>4676.976398979054</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>4434.41250242486</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>4208.069734114601</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5989,25 +5989,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
         <v>4997.579335409525</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C24" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D24" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E24" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F24" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G24" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>3306.448039710919</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L24" t="n">
-        <v>3306.448039710919</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M24" t="n">
-        <v>4362.434577686964</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N24" t="n">
-        <v>5115.135670291427</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O24" t="n">
-        <v>5115.135670291427</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P24" t="n">
-        <v>5115.135670291427</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S24" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T24" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U24" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V24" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W24" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X24" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y24" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4017.903765402536</v>
+        <v>615.9842888225141</v>
       </c>
       <c r="C25" t="n">
-        <v>3845.931202281452</v>
+        <v>444.0117257014301</v>
       </c>
       <c r="D25" t="n">
-        <v>3682.614429408222</v>
+        <v>444.0117257014301</v>
       </c>
       <c r="E25" t="n">
-        <v>3516.406223561076</v>
+        <v>444.0117257014301</v>
       </c>
       <c r="F25" t="n">
-        <v>3344.544449335636</v>
+        <v>272.1499514759905</v>
       </c>
       <c r="G25" t="n">
-        <v>3178.287479629868</v>
+        <v>105.8929817702227</v>
       </c>
       <c r="H25" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>5068.0970569786</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>5068.0970569786</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>5068.0970569786</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V25" t="n">
-        <v>4951.828802806542</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W25" t="n">
-        <v>4676.976398979054</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X25" t="n">
-        <v>4434.41250242486</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="Y25" t="n">
-        <v>4208.069734114601</v>
+        <v>806.1502575345799</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6214,13 +6214,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
@@ -6238,13 +6238,13 @@
         <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>4090.576687723259</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O26" t="n">
-        <v>4935.721337874071</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q26" t="n">
         <v>5115.135670291427</v>
@@ -6262,7 +6262,7 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V26" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W26" t="n">
         <v>3777.607131232208</v>
@@ -6311,19 +6311,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3244.775881075912</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C28" t="n">
-        <v>3244.775881075912</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D28" t="n">
-        <v>3244.775881075912</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E28" t="n">
-        <v>3244.775881075912</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F28" t="n">
-        <v>3244.775881075912</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="G28" t="n">
-        <v>3078.518911370144</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>4897.962009497735</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T28" t="n">
-        <v>4654.622661723635</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U28" t="n">
-        <v>4374.43821322394</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V28" t="n">
-        <v>4092.726745831969</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W28" t="n">
-        <v>3817.874342004482</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X28" t="n">
-        <v>3575.310445450291</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y28" t="n">
-        <v>3348.967677140033</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="29">
@@ -6545,19 +6545,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M30" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N30" t="n">
-        <v>1021.509065974867</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P30" t="n">
         <v>1910.990343986338</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1185.483835930065</v>
+        <v>878.3707945649905</v>
       </c>
       <c r="C31" t="n">
-        <v>1013.511272808982</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="D31" t="n">
-        <v>850.1944999357522</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="E31" t="n">
-        <v>683.9862940886057</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F31" t="n">
-        <v>512.1245198631661</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G31" t="n">
-        <v>345.8675501573982</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H31" t="n">
         <v>202.0712816655526</v>
@@ -6648,25 +6648,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2282.715740818957</v>
+        <v>2116.335923497018</v>
       </c>
       <c r="T31" t="n">
-        <v>2282.715740818957</v>
+        <v>1872.996575722918</v>
       </c>
       <c r="U31" t="n">
-        <v>2282.715740818957</v>
+        <v>1592.812127223222</v>
       </c>
       <c r="V31" t="n">
-        <v>2119.408873334071</v>
+        <v>1311.100659831251</v>
       </c>
       <c r="W31" t="n">
-        <v>1844.556469506584</v>
+        <v>1311.100659831251</v>
       </c>
       <c r="X31" t="n">
-        <v>1601.992572952389</v>
+        <v>1068.536763277056</v>
       </c>
       <c r="Y31" t="n">
-        <v>1375.649804642131</v>
+        <v>1068.536763277056</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2856.963518260713</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6779,22 +6779,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P33" t="n">
         <v>1910.990343986338</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>516.5477476675582</v>
+        <v>648.2727960958064</v>
       </c>
       <c r="C34" t="n">
-        <v>516.5477476675582</v>
+        <v>476.3002329747223</v>
       </c>
       <c r="D34" t="n">
-        <v>516.5477476675582</v>
+        <v>312.9834601014931</v>
       </c>
       <c r="E34" t="n">
-        <v>516.5477476675582</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W34" t="n">
-        <v>985.454412532011</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="X34" t="n">
-        <v>742.8905159778161</v>
+        <v>1064.78153311813</v>
       </c>
       <c r="Y34" t="n">
-        <v>516.5477476675582</v>
+        <v>838.4387648078721</v>
       </c>
     </row>
     <row r="35">
@@ -6937,25 +6937,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q35" t="n">
         <v>5115.135670291427</v>
@@ -7016,22 +7016,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M36" t="n">
-        <v>1021.509065974867</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N36" t="n">
-        <v>1021.509065974867</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P36" t="n">
         <v>1910.990343986338</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>437.5920494001418</v>
+        <v>612.3452565994986</v>
       </c>
       <c r="C37" t="n">
-        <v>265.6194862790578</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="D37" t="n">
-        <v>102.3027134058285</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E37" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
         <v>102.3027134058285</v>
@@ -7119,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T37" t="n">
-        <v>1822.202732251165</v>
+        <v>2108.166209895171</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.018283751469</v>
+        <v>1827.981761395475</v>
       </c>
       <c r="V37" t="n">
-        <v>1260.306816359498</v>
+        <v>1546.270294003504</v>
       </c>
       <c r="W37" t="n">
-        <v>985.454412532011</v>
+        <v>1271.417890176017</v>
       </c>
       <c r="X37" t="n">
-        <v>742.8905159778161</v>
+        <v>1028.853993621822</v>
       </c>
       <c r="Y37" t="n">
-        <v>516.5477476675582</v>
+        <v>802.5112253115642</v>
       </c>
     </row>
     <row r="38">
@@ -7174,25 +7174,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K38" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L38" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M38" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N38" t="n">
-        <v>3950.770911629316</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O38" t="n">
-        <v>3950.770911629316</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P38" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q38" t="n">
         <v>5115.135670291427</v>
@@ -7265,13 +7265,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="N39" t="n">
-        <v>1021.509065974867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.990343986338</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3158.801708427964</v>
+        <v>1019.275630082919</v>
       </c>
       <c r="C40" t="n">
-        <v>3106.584417103738</v>
+        <v>847.303066961835</v>
       </c>
       <c r="D40" t="n">
-        <v>3106.584417103738</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="E40" t="n">
-        <v>3106.584417103738</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F40" t="n">
-        <v>2934.722642878299</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G40" t="n">
-        <v>2934.722642878299</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H40" t="n">
-        <v>2934.722642878299</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I40" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M40" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N40" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O40" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P40" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q40" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>4897.962009497735</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T40" t="n">
-        <v>4654.622661723635</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U40" t="n">
-        <v>4374.43821322394</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V40" t="n">
-        <v>4092.726745831969</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W40" t="n">
-        <v>3817.874342004482</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="X40" t="n">
-        <v>3575.310445450287</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="Y40" t="n">
-        <v>3348.967677140029</v>
+        <v>1209.441598794985</v>
       </c>
     </row>
     <row r="41">
@@ -7411,28 +7411,28 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K41" t="n">
-        <v>815.5852528544891</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L41" t="n">
-        <v>1745.210300473766</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M41" t="n">
-        <v>2749.496401892824</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N41" t="n">
-        <v>3725.747460379525</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O41" t="n">
-        <v>4570.892110530337</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P41" t="n">
-        <v>5003.847243949504</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q41" t="n">
-        <v>5003.847243949504</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R41" t="n">
         <v>5003.847243949504</v>
@@ -7493,22 +7493,22 @@
         <v>100.0769448789901</v>
       </c>
       <c r="K42" t="n">
-        <v>100.0769448789901</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="L42" t="n">
-        <v>100.0769448789901</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="M42" t="n">
-        <v>1156.063482855035</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="N42" t="n">
-        <v>1908.7645754595</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="O42" t="n">
-        <v>1908.7645754595</v>
+        <v>728.4213815582225</v>
       </c>
       <c r="P42" t="n">
-        <v>1908.7645754595</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q42" t="n">
         <v>1908.7645754595</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1083.489499143503</v>
+        <v>443.9112822255137</v>
       </c>
       <c r="C43" t="n">
-        <v>911.5169360224189</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="D43" t="n">
-        <v>748.2001631491896</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="E43" t="n">
-        <v>581.9919573020431</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="F43" t="n">
-        <v>410.1301830766035</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G43" t="n">
-        <v>243.8732133708357</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H43" t="n">
         <v>100.0769448789901</v>
@@ -7593,28 +7593,28 @@
         <v>2280.489972292118</v>
       </c>
       <c r="R43" t="n">
-        <v>2233.451358979291</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S43" t="n">
-        <v>2063.316311498426</v>
+        <v>2183.071583295286</v>
       </c>
       <c r="T43" t="n">
-        <v>1819.976963724326</v>
+        <v>1939.732235521186</v>
       </c>
       <c r="U43" t="n">
-        <v>1819.976963724326</v>
+        <v>1659.54778702149</v>
       </c>
       <c r="V43" t="n">
-        <v>1819.976963724326</v>
+        <v>1377.836319629519</v>
       </c>
       <c r="W43" t="n">
-        <v>1742.562132720021</v>
+        <v>1102.983915802032</v>
       </c>
       <c r="X43" t="n">
-        <v>1499.998236165826</v>
+        <v>860.4200192478372</v>
       </c>
       <c r="Y43" t="n">
-        <v>1273.655467855569</v>
+        <v>634.0772509375793</v>
       </c>
     </row>
     <row r="44">
@@ -7678,7 +7678,7 @@
         <v>4899.479949822645</v>
       </c>
       <c r="T44" t="n">
-        <v>4678.554378867278</v>
+        <v>4787.617036682362</v>
       </c>
       <c r="U44" t="n">
         <v>4529.262127278774</v>
@@ -7730,22 +7730,22 @@
         <v>100.0769448789901</v>
       </c>
       <c r="K45" t="n">
-        <v>100.0769448789901</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="L45" t="n">
-        <v>100.0769448789901</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="M45" t="n">
-        <v>1156.063482855035</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="N45" t="n">
-        <v>1908.7645754595</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="O45" t="n">
-        <v>1908.7645754595</v>
+        <v>728.4213815582225</v>
       </c>
       <c r="P45" t="n">
-        <v>1908.7645754595</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q45" t="n">
         <v>1908.7645754595</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3155.89939208929</v>
+        <v>784.6690189964459</v>
       </c>
       <c r="C46" t="n">
-        <v>3155.89939208929</v>
+        <v>612.6964558753618</v>
       </c>
       <c r="D46" t="n">
-        <v>3155.89939208929</v>
+        <v>612.6964558753618</v>
       </c>
       <c r="E46" t="n">
-        <v>2989.691186242144</v>
+        <v>446.4882500282154</v>
       </c>
       <c r="F46" t="n">
-        <v>2989.691186242144</v>
+        <v>274.6264758027758</v>
       </c>
       <c r="G46" t="n">
-        <v>2823.434216536376</v>
+        <v>108.3695060970079</v>
       </c>
       <c r="H46" t="n">
-        <v>2823.434216536376</v>
+        <v>108.3695060970079</v>
       </c>
       <c r="I46" t="n">
-        <v>2823.434216536376</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J46" t="n">
-        <v>2880.925544760534</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K46" t="n">
-        <v>3107.453145966371</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L46" t="n">
-        <v>3462.142467260792</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M46" t="n">
-        <v>3853.328262231043</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N46" t="n">
-        <v>4230.819773107079</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O46" t="n">
-        <v>4586.247901786842</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P46" t="n">
-        <v>4876.847113708743</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q46" t="n">
-        <v>5003.847243949504</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>4956.808630636678</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S46" t="n">
-        <v>4786.673583155813</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T46" t="n">
-        <v>4543.334235381712</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="U46" t="n">
-        <v>4263.149786882017</v>
+        <v>2000.305523792422</v>
       </c>
       <c r="V46" t="n">
-        <v>3981.438319490046</v>
+        <v>1718.594056400451</v>
       </c>
       <c r="W46" t="n">
-        <v>3706.585915662559</v>
+        <v>1443.741652572964</v>
       </c>
       <c r="X46" t="n">
-        <v>3464.022019108364</v>
+        <v>1201.17775601877</v>
       </c>
       <c r="Y46" t="n">
-        <v>3346.065360801356</v>
+        <v>974.8349877085116</v>
       </c>
     </row>
   </sheetData>
@@ -7978,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
         <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>547.9768619480851</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
@@ -8057,22 +8057,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>178.8848775931268</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>463.2315577343861</v>
       </c>
       <c r="P3" t="n">
         <v>577.9986543204228</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
         <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>182.5915214642101</v>
       </c>
       <c r="M5" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>452.5855512828693</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8294,25 +8294,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
         <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
-        <v>461.4026962257055</v>
+        <v>179.6167914733347</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
@@ -8452,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
         <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>548.8576414812763</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
@@ -8528,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>175.9092261537768</v>
       </c>
       <c r="K9" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
@@ -8543,19 +8543,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>267.0107895760206</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
         <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
@@ -8698,10 +8698,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>313.0640671177295</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>932.7584873252742</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
@@ -8771,22 +8771,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>407.0273017394389</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
@@ -8929,16 +8929,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>936.9478163288022</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>932.7584873252742</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
@@ -8947,10 +8947,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,28 +9005,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>255.3808743436059</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9166,7 +9166,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
@@ -9181,13 +9181,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>129.1350140843319</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,22 +9242,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>730.4358626697095</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
@@ -9409,7 +9409,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>1019.918210644103</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
@@ -9418,13 +9418,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>124.3756766890881</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q20" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
@@ -9491,7 +9491,7 @@
         <v>1089.749849175</v>
       </c>
       <c r="N21" t="n">
-        <v>781.6471621574452</v>
+        <v>185.1977413813447</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,19 +9646,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9719,25 +9719,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>781.6471621574439</v>
+        <v>59.58495761848395</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
         <v>23.67291939414415</v>
@@ -9886,16 +9886,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O26" t="n">
-        <v>891.0724241548241</v>
+        <v>882.2851839951743</v>
       </c>
       <c r="P26" t="n">
-        <v>218.8019602116015</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
         <v>35.03264989479647</v>
@@ -9959,13 +9959,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>535.9688468101303</v>
       </c>
       <c r="N27" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -9974,7 +9974,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10193,7 +10193,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
@@ -10202,13 +10202,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>921.6378271075471</v>
+        <v>530.2476341400729</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10357,22 +10357,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>791.8999401147988</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,25 +10427,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>851.5983435449576</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10585,16 +10585,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>779.697912545697</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10603,10 +10603,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
         <v>35.03264989479647</v>
@@ -10664,25 +10664,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>951.5880457335786</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>921.6378271075471</v>
+        <v>255.8057257768496</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
         <v>22.7470382889785</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10834,16 +10834,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>882.1738474735962</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
         <v>35.03264989479647</v>
@@ -10913,16 +10913,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
@@ -11068,22 +11068,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>474.9037794053499</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,25 +11141,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>61.41381912716452</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11378,25 +11378,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>61.41381912716452</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>107.9720312369327</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>4.64841005134187</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>22.1301998828651</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>38.54620374177179</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>4.648410051341557</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>4.64841005134187</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,13 +23706,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>183.9277968283257</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>81.84451217978966</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,16 +24177,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>117.2205539080147</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.803940126177</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>163.7887810877132</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>85.11443092146585</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
@@ -24615,10 +24615,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>66.4407354247175</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>3.717677857337037</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>126.1153410431523</v>
       </c>
       <c r="F34" t="n">
-        <v>165.7641609568371</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>110.0981677402028</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>164.5944000087102</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>236.5356156878674</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>118.5577190788902</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>173.7227752382871</v>
       </c>
     </row>
     <row r="41">
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>195.4631970949503</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25918,10 +25918,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>107.9720312369329</v>
       </c>
       <c r="U44" t="n">
-        <v>107.972031236933</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
@@ -26034,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>90.56124697128915</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>107.3022489032168</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>732231.6439959689</v>
+        <v>732231.6439959687</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>732231.6439959687</v>
+        <v>732231.6439959686</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>732231.6439959686</v>
+        <v>732231.6439959687</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>721032.5225047097</v>
+        <v>721032.5225047095</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>349465.6008066979</v>
       </c>
       <c r="C2" t="n">
-        <v>349465.6008066978</v>
+        <v>349465.600806698</v>
       </c>
       <c r="D2" t="n">
-        <v>349465.6008066979</v>
+        <v>349465.600806698</v>
       </c>
       <c r="E2" t="n">
+        <v>332061.4976705924</v>
+      </c>
+      <c r="F2" t="n">
         <v>332061.4976705925</v>
       </c>
-      <c r="F2" t="n">
-        <v>332061.4976705926</v>
-      </c>
       <c r="G2" t="n">
-        <v>337218.2418824685</v>
+        <v>337218.2418824686</v>
       </c>
       <c r="H2" t="n">
-        <v>337218.2418824686</v>
+        <v>337218.2418824684</v>
       </c>
       <c r="I2" t="n">
-        <v>337218.2418824684</v>
+        <v>337218.2418824683</v>
       </c>
       <c r="J2" t="n">
-        <v>337218.2418824685</v>
+        <v>337218.2418824683</v>
       </c>
       <c r="K2" t="n">
         <v>337218.2418824685</v>
       </c>
       <c r="L2" t="n">
+        <v>337218.2418824683</v>
+      </c>
+      <c r="M2" t="n">
+        <v>337218.2418824684</v>
+      </c>
+      <c r="N2" t="n">
         <v>337218.2418824685</v>
       </c>
-      <c r="M2" t="n">
-        <v>337218.2418824685</v>
-      </c>
-      <c r="N2" t="n">
-        <v>337218.2418824684</v>
-      </c>
       <c r="O2" t="n">
+        <v>332061.4976705925</v>
+      </c>
+      <c r="P2" t="n">
         <v>332061.4976705926</v>
-      </c>
-      <c r="P2" t="n">
-        <v>332061.4976705924</v>
       </c>
     </row>
     <row r="3">
@@ -26429,13 +26429,13 @@
         <v>85368.22527849904</v>
       </c>
       <c r="F4" t="n">
-        <v>85368.22527849907</v>
+        <v>85368.22527849904</v>
       </c>
       <c r="G4" t="n">
         <v>86696.74064784778</v>
       </c>
       <c r="H4" t="n">
-        <v>86696.74064784776</v>
+        <v>86696.74064784778</v>
       </c>
       <c r="I4" t="n">
         <v>86696.74064784776</v>
@@ -26453,13 +26453,13 @@
         <v>86696.74064784776</v>
       </c>
       <c r="N4" t="n">
-        <v>86696.74064784778</v>
+        <v>86696.74064784776</v>
       </c>
       <c r="O4" t="n">
-        <v>85368.22527849907</v>
+        <v>85368.22527849904</v>
       </c>
       <c r="P4" t="n">
-        <v>85368.22527849906</v>
+        <v>85368.22527849904</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-95629.11239808775</v>
+        <v>-95629.1123980878</v>
       </c>
       <c r="C6" t="n">
-        <v>90775.62101664938</v>
+        <v>90775.62101664956</v>
       </c>
       <c r="D6" t="n">
-        <v>90775.62101664944</v>
+        <v>90775.62101664956</v>
       </c>
       <c r="E6" t="n">
-        <v>-36797.49333249993</v>
+        <v>-36870.01042890043</v>
       </c>
       <c r="F6" t="n">
-        <v>170634.794284061</v>
+        <v>170562.2771876606</v>
       </c>
       <c r="G6" t="n">
-        <v>165145.8169627095</v>
+        <v>165094.7863005254</v>
       </c>
       <c r="H6" t="n">
-        <v>172771.4390461912</v>
+        <v>172720.4083840066</v>
       </c>
       <c r="I6" t="n">
-        <v>172771.4390461909</v>
+        <v>172720.4083840066</v>
       </c>
       <c r="J6" t="n">
-        <v>27237.76911137457</v>
+        <v>27186.73844919009</v>
       </c>
       <c r="K6" t="n">
-        <v>172771.4390461911</v>
+        <v>172720.4083840068</v>
       </c>
       <c r="L6" t="n">
-        <v>172771.439046191</v>
+        <v>172720.4083840066</v>
       </c>
       <c r="M6" t="n">
-        <v>-359.0521594485472</v>
+        <v>-410.082821632895</v>
       </c>
       <c r="N6" t="n">
-        <v>172771.4390461909</v>
+        <v>172720.4083840068</v>
       </c>
       <c r="O6" t="n">
-        <v>170634.7942840611</v>
+        <v>170562.2771876606</v>
       </c>
       <c r="P6" t="n">
-        <v>170634.7942840609</v>
+        <v>170562.2771876606</v>
       </c>
     </row>
   </sheetData>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>272.3699127117746</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27393,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
@@ -27438,13 +27438,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>329.6080546223787</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27539,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>117.2205539080136</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>8.137444434175222</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27621,16 +27621,16 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
+        <v>34.71835988167317</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>51.96789352643407</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>110.0981677402031</v>
+        <v>27.77629167420091</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27839,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -27855,13 +27855,13 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>279.9424765091181</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27915,10 +27915,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>272.3699127117746</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28061,7 +28061,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -28070,13 +28070,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>13.55037112485891</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>144.2794790315872</v>
+      </c>
+      <c r="P2" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="M2" t="n">
-        <v>510.5455990486533</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
@@ -34777,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>158.2737632597934</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>440.0596680121639</v>
       </c>
       <c r="P3" t="n">
         <v>556.2278131155941</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="O5" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="P5" t="n">
-        <v>415.010189472638</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N6" t="n">
-        <v>440.0596680121639</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>510.5455990486534</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>144.2794790315872</v>
+      </c>
+      <c r="P8" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
@@ -35248,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>155.2981118204434</v>
       </c>
       <c r="K9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35263,19 +35263,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>245.6677613624789</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
@@ -35418,10 +35418,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>275.6328042182977</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>895.4788644908282</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
@@ -35491,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>385.2564605346102</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35649,16 +35649,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>898.6357738961793</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>895.4788644908282</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
@@ -35667,10 +35667,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>232.6338360546274</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35886,7 +35886,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
@@ -35901,13 +35901,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>94.10236418953542</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>707.2639729474873</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>982.4869477446711</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
@@ -36138,13 +36138,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>86.80031487885682</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36211,7 +36211,7 @@
         <v>1066.653068662672</v>
       </c>
       <c r="N21" t="n">
-        <v>760.3041339439036</v>
+        <v>163.8547131678031</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,19 +36366,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>760.3041339439022</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36606,16 +36606,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>853.6814647988001</v>
+        <v>844.8942246391501</v>
       </c>
       <c r="P26" t="n">
-        <v>181.2265984013702</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36679,13 +36679,13 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>512.8720662978023</v>
       </c>
       <c r="N27" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36922,13 +36922,13 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>898.4659373853249</v>
+        <v>507.0757444178507</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37077,22 +37077,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>754.4686772153671</v>
       </c>
       <c r="N32" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>829.083256830728</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37305,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>742.2666496462653</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37323,10 +37323,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>898.4659373853249</v>
+        <v>232.6338360546274</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37554,16 +37554,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>844.8942246391501</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37633,16 +37633,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
@@ -37788,22 +37788,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>437.3284175951186</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
